--- a/data-raw/hrms.xlsx
+++ b/data-raw/hrms.xlsx
@@ -804,7 +804,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.25"/>
@@ -877,7 +877,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>-63</v>
@@ -886,7 +886,7 @@
         <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>-164</v>
@@ -918,7 +918,7 @@
         <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>-78.099999999999994</v>
@@ -937,7 +937,7 @@
         <v>122</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>-171.5</v>

--- a/data-raw/hrms.xlsx
+++ b/data-raw/hrms.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\assignR\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Dropbox/HO_database/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB16DF-63EA-3A41-8FFD-AF4746941DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="28140" windowHeight="12460"/>
+    <workbookView xWindow="60" yWindow="1500" windowWidth="28520" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hsds" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,32 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="132">
   <si>
     <t>Treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">AK bear hair </t>
-  </si>
-  <si>
-    <t>Stricker unpubl data</t>
-  </si>
-  <si>
     <t>VSMOW</t>
   </si>
   <si>
-    <t>LA bear hair</t>
-  </si>
-  <si>
     <t>Bowhead whale baleen</t>
   </si>
   <si>
-    <t>Qi and Coplen 2011 Rapid Comm Mass Spec</t>
-  </si>
-  <si>
-    <t>Wassenaar and Hobson 2003 Isotopes Env Health Studies</t>
-  </si>
-  <si>
     <t>offline-eqib dual-inlet method by Wassenaar and Hobson 2000 Env Sci Tech</t>
   </si>
   <si>
@@ -95,15 +81,9 @@
     <t>Utah horse hair</t>
   </si>
   <si>
-    <t>Bowen et al. 2005 Rapid Comm Mass Spec</t>
-  </si>
-  <si>
     <t>calibration against cellulose/PEF</t>
   </si>
   <si>
-    <t>Qi and Coplen 2011 Rapid Comm Mass Spec; Coplen and Qi 2012 Forensic Sci Int</t>
-  </si>
-  <si>
     <t>calibration against n-C24/n-C28 (di d2H values: -34.5/-247.4)</t>
   </si>
   <si>
@@ -116,9 +96,6 @@
     <t>IsoForensics; calibration against n-C24/n-C28 (di+cf d2H values: -35.8/-248.7)</t>
   </si>
   <si>
-    <t>Howa unpubl data</t>
-  </si>
-  <si>
     <t>Cornell; calibration against n-C24/n-C28 (d2H values: -35.8/-248.7)</t>
   </si>
   <si>
@@ -149,12 +126,6 @@
     <t>Tibetan hair</t>
   </si>
   <si>
-    <t>Coplen and Qi 2016 Forensic Sci Int</t>
-  </si>
-  <si>
-    <t>exch with two eqib waters at ambient T for 6 d, dried in vacuum oven at 60 C or in glass desiccators with Sicapent; assumed eps = 0 per mil; Cr-filled reactor</t>
-  </si>
-  <si>
     <t>Low_ID</t>
   </si>
   <si>
@@ -179,24 +150,9 @@
     <t>Chicken feather keratin</t>
   </si>
   <si>
-    <t>Icelandic seabird feather</t>
-  </si>
-  <si>
-    <t>Neto et al. 2006 J Avian Biol</t>
-  </si>
-  <si>
-    <t>back-calc by reversing rescaling function</t>
-  </si>
-  <si>
     <t>calibration against n-C24/n-C28 (di+cf d2H values: -35.8/-248.7)</t>
   </si>
   <si>
-    <t>OH-TCEA analysis method</t>
-  </si>
-  <si>
-    <t>exch with two eqib waters/calibration to PEF</t>
-  </si>
-  <si>
     <t>Citation_val</t>
   </si>
   <si>
@@ -206,9 +162,6 @@
     <t>Ref_scale</t>
   </si>
   <si>
-    <t>Soto et al. 2017 Rapid Comm Mass Spec; Wassenaar unpubl data</t>
-  </si>
-  <si>
     <t>DEN_H_1</t>
   </si>
   <si>
@@ -311,33 +264,18 @@
     <t>comp eqib against OldSA.1_H_1</t>
   </si>
   <si>
-    <t>because different materials from OldSA.1_H_1, should be structured as comp eqib against OldSA.1_H_1</t>
-  </si>
-  <si>
     <t>comp eqib against OldSA.1_H_1; all data until 2012 included</t>
   </si>
   <si>
     <t>comp eqib against US_H_1</t>
   </si>
   <si>
-    <t>Davis; comp eqib against SA_H_5 (KHS/CBS d2H values = -54/-197)</t>
-  </si>
-  <si>
     <t>USGS Reston; dual water comp eqib against US_H_1</t>
   </si>
   <si>
     <t>ambient comp eqib against US_H_1</t>
   </si>
   <si>
-    <t>CAN_H_5 standards were unpowdered therefore CAN_H_5-US_H_1 comparison is not allowed</t>
-  </si>
-  <si>
-    <t>comp eqib against UT_H_2</t>
-  </si>
-  <si>
-    <t>UT_H_4 data have no associated uncertainty therefore UT_H_4-SA_H_5 comparison is not allowed</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -362,27 +300,12 @@
     <t>Low_se</t>
   </si>
   <si>
-    <t xml:space="preserve">Magozzi et al. in prep </t>
-  </si>
-  <si>
-    <t>Magozzi et al. in prep</t>
-  </si>
-  <si>
-    <t>Chesson &amp; Howa unpubl data</t>
-  </si>
-  <si>
     <t>Calibration</t>
   </si>
   <si>
-    <t>LAB</t>
-  </si>
-  <si>
     <t>BWB</t>
   </si>
   <si>
-    <t>IBS</t>
-  </si>
-  <si>
     <t>KHS</t>
   </si>
   <si>
@@ -398,9 +321,6 @@
     <t>USGS43</t>
   </si>
   <si>
-    <t>AKB</t>
-  </si>
-  <si>
     <t>CHS</t>
   </si>
   <si>
@@ -423,12 +343,96 @@
   </si>
   <si>
     <t>H_calibration_comments</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA bear hair </t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AK bear hair</t>
+  </si>
+  <si>
+    <t>Stricker pers comm</t>
+  </si>
+  <si>
+    <t>Qi &amp; Coplen 2011 Rapid Comm Mass Spec</t>
+  </si>
+  <si>
+    <t>Soto et al. 2017 Rapid Comm Mass Spec; Wassenaar pers comm</t>
+  </si>
+  <si>
+    <t>Chesson &amp; Howa pers comm</t>
+  </si>
+  <si>
+    <t>Qi &amp; Coplen 2011 Rapid Comm Mass Spec; Coplen &amp; Qi 2012 Forensic Sci Int</t>
+  </si>
+  <si>
+    <t>Howa pers comm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magozzi et al. MEE </t>
+  </si>
+  <si>
+    <t>Wassenaar &amp; Hobson 2003 Isotopes Env Health Studies</t>
+  </si>
+  <si>
+    <t>Bowen et al. 2005 Rapid Comm Mass Spec; Chesson &amp; Howa pers comm</t>
+  </si>
+  <si>
+    <t>Davis; comp eqib against SA_H_5</t>
+  </si>
+  <si>
+    <t>comp eqib against UT_H_2; OH-TCEA analysis method</t>
+  </si>
+  <si>
+    <t>exch with two eqib waters/calibration to PEF; back-calc by reversing rescaling function</t>
+  </si>
+  <si>
+    <t>offline-eqib dual-inlet method by Wassenaar and Hobson 2000 Env Sci Tech; CFS value later updated to -147.4 per mil</t>
+  </si>
+  <si>
+    <t>Does not have uncertainty</t>
+  </si>
+  <si>
+    <t>Does not meet PIT</t>
+  </si>
+  <si>
+    <t>SA_H_8</t>
+  </si>
+  <si>
+    <t>comp eqib against OldSA.1_H_1 (middle standard CFS updated value = -147.4 per mil)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comp eqib against OldSA.2_H_1; all data until 2012 included (middle standard CFS original value = -138 per mil) </t>
+  </si>
+  <si>
+    <t>exch with two eqib waters over a range of Ts (25-105 C) and drying procedures; assumed eps = 0 per mil; Cr-filled reactor; certified values</t>
+  </si>
+  <si>
+    <t>exch with two eqib waters at ambient T for 6 d, dried in vacuum oven at 60 C or in glass desiccators with Sicapent; assumed eps = 0 per mil; Cr-filled reactor; certified values</t>
+  </si>
+  <si>
+    <t>comp eqib against OldSA.2_H_1</t>
+  </si>
+  <si>
+    <t>SA_H_9</t>
+  </si>
+  <si>
+    <t>Soto et al. 2017 Rapid Comm Mass Spec; Coplen 2017 USGS Certificates</t>
+  </si>
+  <si>
+    <t>Coplen &amp; Qi 2016 Forensic Sci Int; Coplen 2017 USGS Certificates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -471,6 +475,7 @@
       <name val="Calibri (Corpo)"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -498,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -518,11 +523,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -799,94 +807,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="19" width="14.81640625" style="1" customWidth="1"/>
+    <col min="1" max="14" width="14.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="133" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.83203125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>-63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="J2" s="1">
         <v>-164</v>
@@ -895,30 +906,28 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D3" s="1">
         <v>-78.099999999999994</v>
@@ -934,10 +943,10 @@
         <v>0.55708601453115558</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="J3" s="1">
         <v>-171.5</v>
@@ -953,28 +962,28 @@
         <v>0.60249481325568266</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>-108</v>
@@ -984,10 +993,10 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2">
         <v>-187</v>
@@ -997,42 +1006,40 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>-72</v>
+        <v>-108</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2">
         <v>-138</v>
@@ -1040,34 +1047,29 @@
       <c r="K5" s="2">
         <v>5</v>
       </c>
-      <c r="M5" s="2">
-        <v>5</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>-37.1</v>
@@ -1077,10 +1079,10 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2">
         <v>-166.3</v>
@@ -1090,27 +1092,27 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>-41</v>
@@ -1120,10 +1122,10 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1">
         <v>-177.9</v>
@@ -1133,27 +1135,27 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>-35.5</v>
@@ -1163,10 +1165,10 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1">
         <v>-153.30000000000001</v>
@@ -1176,27 +1178,27 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>-47.5</v>
@@ -1206,10 +1208,10 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1">
         <v>-178.8</v>
@@ -1219,1123 +1221,1231 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>-54.1</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1">
         <v>-197</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>-54.7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="F11" s="1">
-        <v>711</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" ref="G11" si="0">E11/SQRT(F11)</f>
-        <v>0.1170091416963065</v>
-      </c>
+        <v>-54.1</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1">
-        <v>-197.2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>4.34</v>
-      </c>
-      <c r="L11" s="1">
-        <v>689</v>
-      </c>
-      <c r="M11" s="3">
-        <f>K11/SQRT(L11)</f>
-        <v>0.16534083195380267</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>61</v>
+        <v>-197</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>-35.299999999999997</v>
+        <v>-54.7</v>
       </c>
       <c r="E12" s="1">
-        <v>1.1000000000000001</v>
+        <v>3.12</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>711</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12" si="1">E12/SQRT(F12)</f>
-        <v>0.49193495504995377</v>
+        <f t="shared" ref="G12" si="0">E12/SQRT(F12)</f>
+        <v>0.1170091416963065</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1">
-        <v>-157</v>
+        <v>-197.2</v>
       </c>
       <c r="K12" s="1">
-        <v>0.9</v>
+        <v>4.34</v>
       </c>
       <c r="L12" s="1">
-        <v>5</v>
+        <v>689</v>
       </c>
       <c r="M12" s="3">
         <f>K12/SQRT(L12)</f>
-        <v>0.40249223594996214</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>91</v>
+        <v>0.16534083195380267</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>-76.3</v>
+        <v>-54.7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>711</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" ref="G13" si="1">E13/SQRT(F13)</f>
+        <v>0.1170091416963065</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="J13" s="1">
-        <v>-141.6</v>
+        <v>-197.2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="L13" s="1">
+        <v>689</v>
+      </c>
+      <c r="M13" s="3">
+        <f>K13/SQRT(L13)</f>
+        <v>0.16534083195380267</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" s="2" customFormat="1">
-      <c r="A14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-52.9</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ref="G14" si="2">E14/SQRT(F14)</f>
-        <v>0.24494897427831783</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="2">
-        <v>-117</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="L14" s="2">
-        <v>6</v>
+        <v>0.49193495504995377</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-157</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <f>K14/SQRT(L14)</f>
-        <v>0.69402209378856716</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>84</v>
+        <v>0.40249223594996214</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="2" customFormat="1">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-58.8</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-76.3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="2">
-        <v>-128.69999999999999</v>
-      </c>
-      <c r="M15" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-141.6</v>
+      </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>-60.2</v>
+        <v>-52.9</v>
       </c>
       <c r="E16" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" ref="G16" si="3">E16/SQRT(F16)</f>
+        <v>0.24494897427831783</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2">
-        <v>-130.1</v>
+        <v>-117</v>
       </c>
       <c r="K16" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="L16" s="2">
+        <v>6</v>
+      </c>
+      <c r="M16" s="3">
+        <f>K16/SQRT(L16)</f>
+        <v>0.69402209378856716</v>
+      </c>
       <c r="N16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>112</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1">
-      <c r="A17" s="2" t="s">
-        <v>74</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>-34</v>
+        <v>-58.8</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J17" s="2">
-        <v>-172.7</v>
+        <v>-128.69999999999999</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1">
-      <c r="A18" s="2" t="s">
-        <v>75</v>
+      <c r="A18" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>-35.4</v>
+        <v>-60.2</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J18" s="2">
-        <v>-174.1</v>
+        <v>-130.1</v>
       </c>
       <c r="K18" s="2">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>-51.2</v>
+        <v>-34</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J19" s="2">
-        <v>-200</v>
+        <v>-172.7</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>-47.2</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>-35.4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2">
-        <v>-195.9</v>
-      </c>
-      <c r="M20" s="1"/>
+        <v>-174.1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="M20" s="3"/>
       <c r="N20" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>-43.1</v>
+        <v>-51.2</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2">
-        <v>-191.7</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1">
-      <c r="A22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>120</v>
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2">
-        <v>-71.599999999999994</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1.6</v>
+        <v>-47.2</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J22" s="2">
-        <v>-106.8</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1.2</v>
+        <v>-195.9</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>111</v>
+      <c r="N22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1">
-      <c r="A23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>120</v>
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2">
-        <v>-70.599999999999994</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.8</v>
+        <v>-43.1</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J23" s="2">
-        <v>-103.2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.2</v>
+        <v>-191.7</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>111</v>
+      <c r="N23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R23" s="5"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>-72.900000000000006</v>
+        <v>-71.599999999999994</v>
       </c>
       <c r="E24" s="2">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J24" s="2">
-        <v>-105.9</v>
+        <v>-106.8</v>
       </c>
       <c r="K24" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1">
-      <c r="A25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>120</v>
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2">
+        <v>-70.599999999999994</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="2">
+        <v>-103.2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" s="2" customFormat="1">
+      <c r="A26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-72.900000000000006</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="2">
+        <v>-105.9</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2">
         <v>-70.400000000000006</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E27" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F27" s="2">
         <v>10</v>
       </c>
-      <c r="G25" s="3">
-        <f t="shared" ref="G25:G33" si="3">E25/SQRT(F25)</f>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27:G35" si="4">E27/SQRT(F27)</f>
         <v>0.34785054261852172</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="H27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2">
         <v>-109.8</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K27" s="2">
         <v>0.8</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L27" s="2">
         <v>10</v>
       </c>
-      <c r="M25" s="3">
-        <f>K25/SQRT(L25)</f>
+      <c r="M27" s="3">
+        <f>K27/SQRT(L27)</f>
         <v>0.25298221281347033</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="2" customFormat="1">
-      <c r="A26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="N27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2">
         <v>-67.900000000000006</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E28" s="2">
         <v>0.8</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="2">
         <v>-103</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K28" s="2">
         <v>0.9</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-50.3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-78.5</v>
-      </c>
-      <c r="K27" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-58.5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-88.3</v>
-      </c>
-      <c r="K28" s="1">
-        <v>3.5</v>
-      </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>14</v>
+      <c r="N28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
-        <v>-48.7</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>-50.3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="3"/>
       <c r="H29" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1">
-        <v>-75.7</v>
-      </c>
-      <c r="K29" s="1">
-        <v>2.2000000000000002</v>
-      </c>
+        <v>-78.5</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="3"/>
       <c r="N29" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1">
-        <v>-60.3</v>
+        <v>-58.5</v>
       </c>
       <c r="E30" s="1">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1">
-        <v>-89.6</v>
+        <v>-88.3</v>
       </c>
       <c r="K30" s="1">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>-57.5</v>
+        <v>-48.7</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1">
-        <v>87</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="3"/>
-        <v>0.21442250696755896</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1">
-        <v>-88.7</v>
+        <v>-75.7</v>
       </c>
       <c r="K31" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="L31" s="1">
-        <v>104</v>
-      </c>
-      <c r="M31" s="3">
-        <f>K31/SQRT(L31)</f>
-        <v>0.16669871486745644</v>
-      </c>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M31" s="3"/>
       <c r="N31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
-        <v>-44.4</v>
+        <v>-60.3</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1">
-        <v>-72.900000000000006</v>
+        <v>-89.6</v>
       </c>
       <c r="K32" s="1">
-        <v>2.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1">
-        <v>-44.2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5</v>
+        <v>-57.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>87</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="3"/>
-        <v>0.40249223594996214</v>
+        <f t="shared" si="4"/>
+        <v>0.21442250696755896</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J33" s="1">
-        <v>-72.2</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
-        <v>5</v>
+        <v>-88.7</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="L33" s="1">
+        <v>104</v>
       </c>
       <c r="M33" s="3">
         <f>K33/SQRT(L33)</f>
+        <v>0.16669871486745644</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-44.4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="4"/>
+        <v>0.81649658092772615</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-72.900000000000006</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L34" s="1">
+        <v>6</v>
+      </c>
+      <c r="M34" s="3">
+        <f>K34/SQRT(L34)</f>
+        <v>0.89814623902049884</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-44.2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="4"/>
+        <v>0.40249223594996214</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-72.2</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
+        <f>K35/SQRT(L35)</f>
         <v>0.44721359549995793</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="6" customFormat="1" ht="15.5">
-      <c r="A34" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="N35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="6" customFormat="1">
+      <c r="A36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="H36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="6">
         <v>-428</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>47</v>
+      <c r="N36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O34" r:id="rId1"/>
+    <hyperlink ref="O36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
